--- a/Neosilos/planilhas/resultados.xlsx
+++ b/Neosilos/planilhas/resultados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubDjonathan\Neosilos\Neosilos\planilhas\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -52,6 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,11 +372,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="18.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -401,6 +402,986 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43467.35171296296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43467.58069444444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43467.62383101852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43467.62383101852</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43467.62993055556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43467.67559027778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43467.700104166666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43467.70554398148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43467.71130787037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43467.748611111114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43467.78077546296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43467.78518518519</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43467.789618055554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43467.789618055554</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43467.8253125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43467.83380787037</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>43467.84890046297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43468.33399305555</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>43468.34018518519</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>43468.344189814816</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43468.3496875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>43468.429247685184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>43468.49497685185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43468.49983796296</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>43468.510833333334</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>43468.53074074074</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43468.55725694444</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43468.55725694444</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43468.56196759259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43468.59056712963</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43468.621782407405</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>43468.65126157407</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>43468.65126157407</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>43468.661886574075</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>43468.722719907404</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>43468.729050925926</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43468.73949074074</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>43468.75053240741</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43468.75053240741</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>43468.85319444445</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>43468.85319444445</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>43469.330405092594</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43469.334085648145</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43469.49265046296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>43469.50739583333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>43469.5466087963</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>43469.5466087963</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>43469.5466087963</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>43469.550775462965</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>43469.624189814815</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>43469.667662037034</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>43469.667662037034</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>43469.673171296294</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>43469.6928587963</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>43469.6977662037</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>43469.6977662037</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>43469.70462962963</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>43469.71953703704</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>43469.730092592596</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>43469.730092592596</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>43469.734560185185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>43469.77892361111</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>43469.77892361111</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>43469.78806712963</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>43469.78806712963</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>43469.794641203705</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>43469.800046296295</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43470.383425925924</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>43470.38827546296</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>43470.38827546296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
